--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_62.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:12.140000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1980676328502415</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['G', 'A', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['A', 'B', 'E', 'E/7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:00:29.965374', '0:00:35.781972')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.935986', '0:00:13.148866')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:09.480000', '0:00:25.940000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.56, 4.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
